--- a/natmiOut/OldD7/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>166.132568395795</v>
+        <v>173.5887273333334</v>
       </c>
       <c r="H2">
-        <v>166.132568395795</v>
+        <v>520.7661820000001</v>
       </c>
       <c r="I2">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="J2">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N2">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O2">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P2">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q2">
-        <v>462.8217519140355</v>
+        <v>547.8420887861805</v>
       </c>
       <c r="R2">
-        <v>462.8217519140355</v>
+        <v>4930.578799075624</v>
       </c>
       <c r="S2">
-        <v>0.09216553985521768</v>
+        <v>0.09393458334424443</v>
       </c>
       <c r="T2">
-        <v>0.09216553985521768</v>
+        <v>0.0939345833442444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>166.132568395795</v>
+        <v>173.5887273333334</v>
       </c>
       <c r="H3">
-        <v>166.132568395795</v>
+        <v>520.7661820000001</v>
       </c>
       <c r="I3">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="J3">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N3">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O3">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P3">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q3">
-        <v>523.84351085691</v>
+        <v>549.573867792967</v>
       </c>
       <c r="R3">
-        <v>523.84351085691</v>
+        <v>4946.164810136703</v>
       </c>
       <c r="S3">
-        <v>0.1043173095864934</v>
+        <v>0.09423151916348246</v>
       </c>
       <c r="T3">
-        <v>0.1043173095864934</v>
+        <v>0.09423151916348244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>166.132568395795</v>
+        <v>173.5887273333334</v>
       </c>
       <c r="H4">
-        <v>166.132568395795</v>
+        <v>520.7661820000001</v>
       </c>
       <c r="I4">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="J4">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N4">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O4">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P4">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q4">
-        <v>382.2161929883437</v>
+        <v>433.2848698763663</v>
       </c>
       <c r="R4">
-        <v>382.2161929883437</v>
+        <v>3899.563828887296</v>
       </c>
       <c r="S4">
-        <v>0.07611388536189598</v>
+        <v>0.07429227245277747</v>
       </c>
       <c r="T4">
-        <v>0.07611388536189598</v>
+        <v>0.07429227245277746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.023396401541</v>
+        <v>141.053299</v>
       </c>
       <c r="H5">
-        <v>141.023396401541</v>
+        <v>423.159897</v>
       </c>
       <c r="I5">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="J5">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N5">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O5">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P5">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q5">
-        <v>392.8711631540677</v>
+        <v>445.1610144358893</v>
       </c>
       <c r="R5">
-        <v>392.8711631540677</v>
+        <v>4006.449129923004</v>
       </c>
       <c r="S5">
-        <v>0.07823569807576254</v>
+        <v>0.07632859042426909</v>
       </c>
       <c r="T5">
-        <v>0.07823569807576254</v>
+        <v>0.07632859042426908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>141.023396401541</v>
+        <v>141.053299</v>
       </c>
       <c r="H6">
-        <v>141.023396401541</v>
+        <v>423.159897</v>
       </c>
       <c r="I6">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="J6">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N6">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O6">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P6">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q6">
-        <v>444.6701317946927</v>
+        <v>446.5682091644797</v>
       </c>
       <c r="R6">
-        <v>444.6701317946927</v>
+        <v>4019.113882480317</v>
       </c>
       <c r="S6">
-        <v>0.08855085696568747</v>
+        <v>0.07656987208776309</v>
       </c>
       <c r="T6">
-        <v>0.08855085696568747</v>
+        <v>0.07656987208776309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>141.023396401541</v>
+        <v>141.053299</v>
       </c>
       <c r="H7">
-        <v>141.023396401541</v>
+        <v>423.159897</v>
       </c>
       <c r="I7">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="J7">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N7">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O7">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P7">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q7">
-        <v>324.4482777541131</v>
+        <v>352.0750525780907</v>
       </c>
       <c r="R7">
-        <v>324.4482777541131</v>
+        <v>3168.675473202816</v>
       </c>
       <c r="S7">
-        <v>0.06461008055614814</v>
+        <v>0.06036780314397076</v>
       </c>
       <c r="T7">
-        <v>0.06461008055614814</v>
+        <v>0.06036780314397075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>284.304969757831</v>
+        <v>322.1880443333333</v>
       </c>
       <c r="H8">
-        <v>284.304969757831</v>
+        <v>966.564133</v>
       </c>
       <c r="I8">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973437</v>
       </c>
       <c r="J8">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N8">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O8">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P8">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q8">
-        <v>792.0332867406431</v>
+        <v>1016.818164986995</v>
       </c>
       <c r="R8">
-        <v>792.0332867406431</v>
+        <v>9151.363484882955</v>
       </c>
       <c r="S8">
-        <v>0.1577241673578741</v>
+        <v>0.1743465728902608</v>
       </c>
       <c r="T8">
-        <v>0.1577241673578741</v>
+        <v>0.1743465728902608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>284.304969757831</v>
+        <v>322.1880443333333</v>
       </c>
       <c r="H9">
-        <v>284.304969757831</v>
+        <v>966.564133</v>
       </c>
       <c r="I9">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973437</v>
       </c>
       <c r="J9">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973436</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N9">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O9">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P9">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q9">
-        <v>896.4606696333927</v>
+        <v>1020.032420313279</v>
       </c>
       <c r="R9">
-        <v>896.4606696333927</v>
+        <v>9180.291782819513</v>
       </c>
       <c r="S9">
-        <v>0.1785196595320739</v>
+        <v>0.1748976983715204</v>
       </c>
       <c r="T9">
-        <v>0.1785196595320739</v>
+        <v>0.1748976983715204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>284.304969757831</v>
+        <v>322.1880443333333</v>
       </c>
       <c r="H10">
-        <v>284.304969757831</v>
+        <v>966.564133</v>
       </c>
       <c r="I10">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973437</v>
       </c>
       <c r="J10">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973436</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N10">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O10">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P10">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q10">
-        <v>654.091875168137</v>
+        <v>804.1951053458914</v>
       </c>
       <c r="R10">
-        <v>654.091875168137</v>
+        <v>7237.755948113024</v>
       </c>
       <c r="S10">
-        <v>0.1302547482707344</v>
+        <v>0.1378896103355625</v>
       </c>
       <c r="T10">
-        <v>0.1302547482707344</v>
+        <v>0.1378896103355625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.9835201463378</v>
+        <v>24.56519766666666</v>
       </c>
       <c r="H11">
-        <v>17.9835201463378</v>
+        <v>73.69559299999999</v>
       </c>
       <c r="I11">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="J11">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N11">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O11">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P11">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q11">
-        <v>50.09953424592984</v>
+        <v>77.52720702485287</v>
       </c>
       <c r="R11">
-        <v>50.09953424592984</v>
+        <v>697.7448632236758</v>
       </c>
       <c r="S11">
-        <v>0.009976736402676109</v>
+        <v>0.01329303833858016</v>
       </c>
       <c r="T11">
-        <v>0.009976736402676109</v>
+        <v>0.01329303833858016</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.9835201463378</v>
+        <v>24.56519766666666</v>
       </c>
       <c r="H12">
-        <v>17.9835201463378</v>
+        <v>73.69559299999999</v>
       </c>
       <c r="I12">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="J12">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N12">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O12">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P12">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q12">
-        <v>56.70501829948239</v>
+        <v>77.77227762517477</v>
       </c>
       <c r="R12">
-        <v>56.70501829948239</v>
+        <v>699.9504986265729</v>
       </c>
       <c r="S12">
-        <v>0.01129214131025224</v>
+        <v>0.01333505884996906</v>
       </c>
       <c r="T12">
-        <v>0.01129214131025224</v>
+        <v>0.01333505884996906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.9835201463378</v>
+        <v>24.56519766666666</v>
       </c>
       <c r="H13">
-        <v>17.9835201463378</v>
+        <v>73.69559299999999</v>
       </c>
       <c r="I13">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="J13">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N13">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O13">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P13">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q13">
-        <v>41.37414278991182</v>
+        <v>61.31578149110043</v>
       </c>
       <c r="R13">
-        <v>41.37414278991182</v>
+        <v>551.8420334199039</v>
       </c>
       <c r="S13">
-        <v>0.008239176725184174</v>
+        <v>0.01051338059759994</v>
       </c>
       <c r="T13">
-        <v>0.008239176725184174</v>
+        <v>0.01051338059759994</v>
       </c>
     </row>
   </sheetData>
